--- a/data/trans_dic/P25C$pormicuenta_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P25C$pormicuenta_2023-Dificultad-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.8818696383578787</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.9111069279500088</v>
+        <v>0.9111069279500089</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.8926306229325852</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7939760248587395</v>
+        <v>0.8074735454948624</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8340715789359466</v>
+        <v>0.8288640858485855</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8340773764521525</v>
+        <v>0.8311383751315482</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9373724675522623</v>
+        <v>0.941812929425883</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9613662052217375</v>
+        <v>0.9625380169381912</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9322353503549086</v>
+        <v>0.9361882044140464</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.8481158275462055</v>
+        <v>0.8481158275462054</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.8878117755874479</v>
+        <v>0.8878117755874481</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8604657393861873</v>
+        <v>0.8604657393861875</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7861186854165231</v>
+        <v>0.7808578176724149</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8255374685689102</v>
+        <v>0.8178917559073826</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8183100123596632</v>
+        <v>0.8149234356399604</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8963002807040609</v>
+        <v>0.8959919809738643</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9363038757229161</v>
+        <v>0.931474883136948</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.896527939800304</v>
+        <v>0.8997172203956368</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.9348050126743385</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.8814747063819022</v>
+        <v>0.8814747063819021</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9158473777651396</v>
+        <v>0.9158473777651394</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8858246329452866</v>
+        <v>0.8886577823616004</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8208807492431081</v>
+        <v>0.8169763598516838</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.879060620263605</v>
+        <v>0.878559406315758</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9654539398841039</v>
+        <v>0.9662612680084202</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9292331580259341</v>
+        <v>0.9300812074472875</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9455860253398104</v>
+        <v>0.9432831948490611</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.9120419835581853</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.920257994417496</v>
+        <v>0.9202579944174961</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.9152260167172172</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8609699716090831</v>
+        <v>0.8625450482360955</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8734470348439182</v>
+        <v>0.8745354589895868</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8818593693684347</v>
+        <v>0.8806490491971459</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.942849518809417</v>
+        <v>0.9452938139307255</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.952688733846745</v>
+        <v>0.953324978117926</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9399028863118035</v>
+        <v>0.94021093457448</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.894820003626516</v>
+        <v>0.8948200036265158</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.9012377483963712</v>
+        <v>0.9012377483963711</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.8971016872439435</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8692890619761304</v>
+        <v>0.8692308953118471</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8737632780615429</v>
+        <v>0.8749823213194363</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8773966342484697</v>
+        <v>0.8770185728754202</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9170852254378263</v>
+        <v>0.915803568906505</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.924426294838067</v>
+        <v>0.9267415718368702</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9136748271519631</v>
+        <v>0.9130491063116548</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>69625</v>
+        <v>70809</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>42599</v>
+        <v>42333</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>115741</v>
+        <v>115333</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>82200</v>
+        <v>82589</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>49100</v>
+        <v>49160</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>129362</v>
+        <v>129910</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>152756</v>
+        <v>151734</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>72447</v>
+        <v>71776</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>230824</v>
+        <v>229869</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>174166</v>
+        <v>174106</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>82167</v>
+        <v>81743</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>252887</v>
+        <v>253787</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>147360</v>
+        <v>147832</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>75316</v>
+        <v>74958</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>226888</v>
+        <v>226759</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>160607</v>
+        <v>160741</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>85257</v>
+        <v>85335</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>244059</v>
+        <v>243464</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>177944</v>
+        <v>178269</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>114227</v>
+        <v>114369</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>297588</v>
+        <v>297179</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>194866</v>
+        <v>195371</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>124590</v>
+        <v>124673</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>317175</v>
+        <v>317279</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>569419</v>
+        <v>569381</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>315740</v>
+        <v>316181</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>891783</v>
+        <v>891399</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>600728</v>
+        <v>599888</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>334048</v>
+        <v>334885</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>928656</v>
+        <v>928020</v>
       </c>
     </row>
     <row r="24">
